--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/10/seed5/result_data_RandomForest.xlsx
@@ -482,16 +482,16 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.173299999999999</v>
+        <v>5.675800000000002</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.9145</v>
+        <v>-12.20399999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.35159999999999</v>
+        <v>16.42790000000001</v>
       </c>
     </row>
     <row r="4">
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.52900000000001</v>
+        <v>16.40330000000001</v>
       </c>
     </row>
     <row r="7">
@@ -573,7 +573,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.951499999999999</v>
+        <v>-9.048099999999998</v>
       </c>
       <c r="E8" t="n">
         <v>16.54</v>
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.549600000000003</v>
+        <v>-7.5583</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.6609</v>
+        <v>-21.57320000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,13 +669,13 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.320800000000004</v>
+        <v>6.029899999999997</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.399699999999999</v>
+        <v>-7.590700000000003</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.171199999999997</v>
+        <v>-8.316299999999996</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>3.881500000000001</v>
+        <v>4.001000000000001</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.6007</v>
+        <v>16.6332</v>
       </c>
     </row>
     <row r="28">
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-14.3928</v>
+        <v>-13.6955</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.209600000000001</v>
+        <v>4.570900000000002</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.23160000000001</v>
+        <v>-21.25170000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.17660000000002</v>
+        <v>17.16170000000002</v>
       </c>
     </row>
     <row r="34">
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.09770000000001</v>
+        <v>9.3452</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.51399999999999</v>
+        <v>-19.425</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.727300000000001</v>
+        <v>-7.892900000000003</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.915899999999999</v>
+        <v>9.011700000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.5412</v>
+        <v>-19.2708</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>15.91639999999999</v>
+        <v>15.7743</v>
       </c>
     </row>
     <row r="40">
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.30809999999999</v>
+        <v>-13.55499999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.394400000000002</v>
+        <v>5.447299999999999</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.91110000000001</v>
+        <v>-21.8042</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.6011</v>
+        <v>16.6244</v>
       </c>
     </row>
     <row r="48">
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-22.4036</v>
+        <v>-22.2843</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1358,12 +1358,12 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.8165</v>
+        <v>16.91679999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.1196</v>
+        <v>-21.93489999999998</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.2292</v>
+        <v>16.16690000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.002599999999996</v>
+        <v>4.828299999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1420,13 +1420,13 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-13.0644</v>
+        <v>-12.9883</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.60970000000001</v>
+        <v>16.6306</v>
       </c>
     </row>
     <row r="59">
@@ -1525,7 +1525,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.447799999999996</v>
+        <v>-7.550699999999996</v>
       </c>
       <c r="E64" t="n">
         <v>16.88</v>
@@ -1562,12 +1562,12 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>17.25540000000001</v>
+        <v>17.13650000000001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.48909999999999</v>
+        <v>-21.41709999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.59469999999997</v>
+        <v>-21.56429999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.91149999999999</v>
+        <v>-21.91310000000001</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1664,7 +1664,7 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>16.93209999999999</v>
+        <v>16.6883</v>
       </c>
     </row>
     <row r="73">
@@ -1834,7 +1834,7 @@
         <v>-7.37</v>
       </c>
       <c r="E82" t="n">
-        <v>16.76359999999999</v>
+        <v>16.59840000000001</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.69319999999999</v>
+        <v>16.87939999999999</v>
       </c>
     </row>
     <row r="84">
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.99859999999999</v>
+        <v>-13.87409999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1947,10 +1947,10 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.3502</v>
+        <v>-11.0496</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.842000000000001</v>
+        <v>-5.830300000000002</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.6072</v>
+        <v>-21.5674</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-11.5804</v>
+        <v>-11.0867</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.8056</v>
+        <v>-11.3661</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.15899999999998</v>
+        <v>-20.17529999999998</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>4.823799999999999</v>
+        <v>4.815299999999997</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,10 +2165,10 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.039500000000002</v>
+        <v>7.9859</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.8484</v>
+        <v>-13.2627</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
